--- a/myapp/files/9_MethodComparePercent/Scenario 326.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 326.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5974</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.05140330838289</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.706713780918728</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8178</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.4392996745824</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.06007067137809</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>9883</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.73937376912422</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.41342756183746</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>972</v>
+        <v>10165</v>
       </c>
       <c r="F5" t="n">
-        <v>1.14772874871589</v>
+        <v>1.78900479238569</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.32558139534884</v>
+        <v>1.41342756183746</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4626</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.814159977331646</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.706713780918728</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6929</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.21948000063359</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.41342756183746</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>13881</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.4430079216041</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.76678445229682</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>21905</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.85520412958273</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.886925795053</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>29199</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>5.138922865998</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,10 +897,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.9469964664311</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9609</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.69115071815387</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.82685512367491</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>8396</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.47766691951502</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.76678445229682</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1628</v>
+        <v>36543</v>
       </c>
       <c r="F13" t="n">
-        <v>1.92232757500974</v>
+        <v>6.43144142923267</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>2.32558139534884</v>
+        <v>3.886925795053</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>8537</v>
+        <v>51139</v>
       </c>
       <c r="F14" t="n">
-        <v>10.0804118598637</v>
+        <v>9.00028687435431</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -1049,10 +1049,10 @@
         <v>14.4927536231884</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J14" t="n">
-        <v>9.30232558139535</v>
+        <v>8.12720848056537</v>
       </c>
       <c r="K14" t="n">
         <v>6</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>10545</v>
+        <v>48208</v>
       </c>
       <c r="F15" t="n">
-        <v>12.4514399744949</v>
+        <v>8.4844410262006</v>
       </c>
       <c r="G15" t="n">
         <v>8</v>
@@ -1087,10 +1087,10 @@
         <v>11.5942028985507</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>16.2790697674419</v>
+        <v>9.89399293286219</v>
       </c>
       <c r="K15" t="n">
         <v>8</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>14067</v>
+        <v>26349</v>
       </c>
       <c r="F16" t="n">
-        <v>16.6101855022494</v>
+        <v>4.63733273729173</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1125,10 +1125,10 @@
         <v>5.79710144927536</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>11.6279069767442</v>
+        <v>5.30035335689046</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.16527306742603</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.76678445229682</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1206</v>
+        <v>32270</v>
       </c>
       <c r="F18" t="n">
-        <v>1.4240338178512</v>
+        <v>5.67940822924605</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1201,10 +1201,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J18" t="n">
-        <v>2.32558139534884</v>
+        <v>6.36042402826855</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>5775</v>
+        <v>46243</v>
       </c>
       <c r="F19" t="n">
-        <v>6.81906741135212</v>
+        <v>8.13860783219786</v>
       </c>
       <c r="G19" t="n">
         <v>12</v>
@@ -1239,16 +1239,16 @@
         <v>17.3913043478261</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J19" t="n">
-        <v>4.65116279069767</v>
+        <v>8.12720848056537</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>8.69565217391304</v>
+        <v>7.2463768115942</v>
       </c>
     </row>
     <row r="20">
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>7693</v>
+        <v>50240</v>
       </c>
       <c r="F20" t="n">
-        <v>9.08382434554665</v>
+        <v>8.84206598814135</v>
       </c>
       <c r="G20" t="n">
         <v>16</v>
@@ -1277,10 +1277,10 @@
         <v>23.1884057971014</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J20" t="n">
-        <v>4.65116279069767</v>
+        <v>8.8339222614841</v>
       </c>
       <c r="K20" t="n">
         <v>9</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>3840</v>
+        <v>23705</v>
       </c>
       <c r="F21" t="n">
-        <v>4.53423703196401</v>
+        <v>4.17199789508143</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>2.32558139534884</v>
+        <v>4.9469964664311</v>
       </c>
       <c r="K21" t="n">
         <v>3</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1518</v>
+        <v>9393</v>
       </c>
       <c r="F22" t="n">
-        <v>1.79244057669827</v>
+        <v>1.65313546629402</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.32558139534884</v>
+        <v>1.06007067137809</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>5338</v>
+        <v>19199</v>
       </c>
       <c r="F23" t="n">
-        <v>6.30306179078747</v>
+        <v>3.37895750211636</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
-        <v>6.97674418604651</v>
+        <v>4.24028268551237</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>9270</v>
+        <v>38458</v>
       </c>
       <c r="F24" t="n">
-        <v>10.9459315849756</v>
+        <v>6.76847479641601</v>
       </c>
       <c r="G24" t="n">
         <v>6</v>
@@ -1429,10 +1429,10 @@
         <v>8.69565217391304</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J24" t="n">
-        <v>13.953488372093</v>
+        <v>5.30035335689046</v>
       </c>
       <c r="K24" t="n">
         <v>11</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>4794</v>
+        <v>25924</v>
       </c>
       <c r="F25" t="n">
-        <v>5.66071154459257</v>
+        <v>4.56253420932676</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -1467,10 +1467,10 @@
         <v>7.2463768115942</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J25" t="n">
-        <v>11.6279069767442</v>
+        <v>6.00706713780919</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>9506</v>
+        <v>25156</v>
       </c>
       <c r="F26" t="n">
-        <v>11.2245982358984</v>
+        <v>4.42736886938065</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J26" t="n">
-        <v>9.30232558139535</v>
+        <v>4.24028268551237</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
